--- a/back.xlsx
+++ b/back.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>Жим штанги</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>18-20.20</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -2571,6 +2574,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AN2:AO2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="AX2:AY2"/>
@@ -2587,15 +2599,6 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AN2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3070,7 +3073,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3402,6 +3405,9 @@
       <c r="B16" t="s">
         <v>61</v>
       </c>
+      <c r="L16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7"/>

--- a/back.xlsx
+++ b/back.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14295" windowHeight="5385" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14295" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="грудь" sheetId="1" r:id="rId1"/>
@@ -12,110 +12,27 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="расчет времени" sheetId="4" r:id="rId4"/>
     <sheet name="Программа дома" sheetId="5" r:id="rId5"/>
+    <sheet name="Программа зал" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
-  <si>
-    <t>Жим штанги</t>
-  </si>
-  <si>
-    <t>Жим штанги 45</t>
-  </si>
-  <si>
-    <t>Жим в смите</t>
-  </si>
-  <si>
-    <t>Жим  смите 45</t>
-  </si>
-  <si>
-    <t>Жим гантелей 45</t>
-  </si>
-  <si>
-    <t>Жим гантелей</t>
-  </si>
-  <si>
-    <t>Разод гантелей</t>
-  </si>
-  <si>
-    <t>Жим свенда</t>
-  </si>
-  <si>
-    <t>Жим в пул даун</t>
-  </si>
-  <si>
-    <t>бабока в статике</t>
-  </si>
-  <si>
-    <t>Бабочка хват низ</t>
-  </si>
-  <si>
-    <t>Брусь с наклоном вперед</t>
-  </si>
-  <si>
-    <t>хамер</t>
-  </si>
-  <si>
-    <t>Сведения стоя  хамере</t>
-  </si>
-  <si>
-    <t>Сведени в кроссовер сидя 45 руки горизонт</t>
-  </si>
-  <si>
-    <t>Развод гантелей круговой</t>
-  </si>
-  <si>
-    <t>развод гантелей стоя</t>
-  </si>
-  <si>
-    <t>хамер сидя боком одной рукой</t>
-  </si>
-  <si>
-    <t>бабочка хват ниж</t>
-  </si>
-  <si>
-    <t>жим гантелей узким хватом</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>гравитрон жим грудью</t>
-  </si>
-  <si>
     <t xml:space="preserve"> стараться чтобы сжимало</t>
   </si>
   <si>
     <t>№ тренировки</t>
   </si>
   <si>
-    <t>бабочки</t>
-  </si>
-  <si>
-    <t>в начале</t>
-  </si>
-  <si>
-    <t>в конце</t>
-  </si>
-  <si>
-    <t>середина</t>
-  </si>
-  <si>
     <t>заливающие</t>
   </si>
   <si>
-    <t>Сведения в кроссовер стоя</t>
-  </si>
-  <si>
     <t>тренировка №</t>
   </si>
   <si>
@@ -125,24 +42,9 @@
     <t>вес</t>
   </si>
   <si>
-    <t>Бабочка хат верх</t>
-  </si>
-  <si>
-    <t>вес делается меньше чем если бы в середине</t>
-  </si>
-  <si>
     <t>л</t>
   </si>
   <si>
-    <t>жим гантелей 45 попеременно кажой рукой</t>
-  </si>
-  <si>
-    <t>поднятие палки в кроссовере</t>
-  </si>
-  <si>
-    <t>Кроссовер, длинная палка, промеж ног, спиной к стенке, поднятие прямых рук(грудь+передние пучки дельт)</t>
-  </si>
-  <si>
     <t>отдых</t>
   </si>
   <si>
@@ -252,6 +154,168 @@
   </si>
   <si>
     <t>18-20.20</t>
+  </si>
+  <si>
+    <t>Блочный за спину</t>
+  </si>
+  <si>
+    <t>Блочный тяга к груди</t>
+  </si>
+  <si>
+    <t>Тяга нижнего блока</t>
+  </si>
+  <si>
+    <t>Тяга нижнего блока поочередно</t>
+  </si>
+  <si>
+    <t>Тяга верхнего блока v- образно</t>
+  </si>
+  <si>
+    <t>тяга цепей</t>
+  </si>
+  <si>
+    <t>пулловер</t>
+  </si>
+  <si>
+    <t>Тяга рукояди в кроссовере одной рукой сидя</t>
+  </si>
+  <si>
+    <t>Тяга рукояди в кроссовере одной рукой стоя</t>
+  </si>
+  <si>
+    <t>Шраги</t>
+  </si>
+  <si>
+    <t>Подтягивания в гравитроне</t>
+  </si>
+  <si>
+    <t>Pull Down</t>
+  </si>
+  <si>
+    <t>Т - тяга с упором хват широкий</t>
+  </si>
+  <si>
+    <t>Тяга гантелей в наклоне одной рукой</t>
+  </si>
+  <si>
+    <t>Тяга штанги в наклоне</t>
+  </si>
+  <si>
+    <t>Гребля одной рукой хват узкий</t>
+  </si>
+  <si>
+    <t>Гребля 2 руками хват широкий</t>
+  </si>
+  <si>
+    <t>Гребля обратная хват  обратный, по середине, между ручками</t>
+  </si>
+  <si>
+    <t>Полустановая</t>
+  </si>
+  <si>
+    <t>гребляхват широкий 1ой рукой</t>
+  </si>
+  <si>
+    <t>Гребля двумя хват узкий</t>
+  </si>
+  <si>
+    <t>Гребля обратная хват узкий</t>
+  </si>
+  <si>
+    <t>делаем в начале так как энергозатратное</t>
+  </si>
+  <si>
+    <t>коментарий</t>
+  </si>
+  <si>
+    <t>делаются в конце или в качестве разминки</t>
+  </si>
+  <si>
+    <t>вес делается меньше чем если бы в середине(можно обсалюттно любое упражнение с малым весом)</t>
+  </si>
+  <si>
+    <t>v - образная тяга кроссовер к подборотку</t>
+  </si>
+  <si>
+    <t>встали прямо, сначало подымаев вверхплечи затем руки, кисти, натягиваем до подбородка.</t>
+  </si>
+  <si>
+    <t>группа мышц</t>
+  </si>
+  <si>
+    <t>Название упражнения</t>
+  </si>
+  <si>
+    <t>пример альтернативы</t>
+  </si>
+  <si>
+    <t>жим нагами - приседы в гаге</t>
+  </si>
+  <si>
+    <t>"Мы не сгибаем руки, а отпускаем локти, включать руки минимально", "Спину не выключаем, (не создаем положение в котором можем хоть сколько просидеть) т.е. руки до конца не выпримляем", "голову не опускаем, чуть выше смотрим"</t>
+  </si>
+  <si>
+    <t>тяга с ферху через сторону(разгибание плеча)</t>
+  </si>
+  <si>
+    <t>тяга к себе(приведение плча)</t>
+  </si>
+  <si>
+    <t>круглые, широчайшие, задний пучок дельт (больше верх спины)</t>
+  </si>
+  <si>
+    <t>широчайшая, круглая(приводит лопатки),низ трапеции, ромбовидная (больше низ спины)</t>
+  </si>
+  <si>
+    <t>корпус прямо без наклона, можно немного пакачиваться(когда тянем отклоняемся немного назад, пркатически незаметно,естественно), руки до конца не выпримлять, локти смотрят вниз паралельно корпусу,приводить их через стороны, бицепс стараться не напрягать, в конечной точкеобязательно свести лапаточки</t>
+  </si>
+  <si>
+    <t>альтернатива</t>
+  </si>
+  <si>
+    <t>тяга блока сидя к животу - кребля</t>
+  </si>
+  <si>
+    <t>тяга с верху - тяга к поясу</t>
+  </si>
+  <si>
+    <t>колени чють согнуты,поясничка, чуть прогнута(именно чуть!!), в процессе тяги голову не отпускать смотрит в перед, при выполнении корпус практически не двигается( допустим маятник 2-3 градса,чтобы отключить бицепс), не создавать раслабленное состояние( ненужно тянуться в перед))</t>
+  </si>
+  <si>
+    <t>широчайшая,ромбовидная,низ трапеции</t>
+  </si>
+  <si>
+    <t>голова смоттрит вперет, маятник, большое опускание в низ не нужно</t>
+  </si>
+  <si>
+    <t>вспомогательные</t>
+  </si>
+  <si>
+    <t>основное</t>
+  </si>
+  <si>
+    <t>трапецевидные, разгибатели</t>
+  </si>
+  <si>
+    <t>трапеции</t>
+  </si>
+  <si>
+    <t>ширина</t>
+  </si>
+  <si>
+    <t>толщина</t>
+  </si>
+  <si>
+    <t>руки чуть шире ширины плеч, ноги на ширине плеч,голова поднята, смотрит вперед. Прогнуться почти паралелно полу(че мниже тем большезадействуется спина, но больше устает поясница)гриф чуть выше колен или ниже, небольшой маятник, когда приводим вверх, корпус немного поднимается, ноги чуть выпримляем, когда опускаем, ноги соответственно сгибаем. Поднимаем к пояснице, гриф проходит вдоль ног, чтобы предплечья были перпендикулярны корпусу, а плечевой сустав паралельно корпусу</t>
+  </si>
+  <si>
+    <t>два шага от блока,накланяем туловище в низ,спина прямая с естественным прогибом, подтягивание прямых рук к туловещу, не подымать выше головы, логти маленько вывернуты в стороны(вверх), когда в низ смотрять локти,то потключается трицепс</t>
+  </si>
+  <si>
+    <t>с меньшим весом делается в конце как добвание</t>
+  </si>
+  <si>
+    <t>добивание</t>
   </si>
 </sst>
 </file>
@@ -281,7 +345,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +376,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -325,19 +407,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -345,6 +438,51 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="Ð°Ð½Ð°ÑÐ¾Ð¼Ð¸Ñ Ð¼ÑÑÑ ÑÐ¿Ð¸Ð½Ñ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5638800"/>
+          <a:ext cx="4762500" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,283 +770,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="B5" s="7"/>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="B7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="7"/>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C23" s="7"/>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="10"/>
       <c r="D26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="E31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="E32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:C24">
-    <sortCondition ref="C2"/>
+  <sortState ref="D2:D24">
+    <sortCondition ref="D2"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -953,286 +1226,286 @@
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="23.25">
-      <c r="B2" s="6" t="str">
-        <f>грудь!C2</f>
-        <v>бабока в статике</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="str">
-        <f>грудь!$C$3</f>
-        <v>Бабочка хат верх</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="str">
-        <f>грудь!$C$4</f>
-        <v>бабочка хват ниж</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="str">
-        <f>грудь!$C$5</f>
-        <v>Бабочка хват низ</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="str">
-        <f>грудь!$C$6</f>
-        <v>Брусь с наклоном вперед</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="str">
-        <f>грудь!$C$7</f>
-        <v>гравитрон жим грудью</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="str">
-        <f>грудь!$C$8</f>
-        <v>Жим  смите 45</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6" t="str">
-        <f>грудь!$C$9</f>
-        <v>Жим в пул даун</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="str">
-        <f>грудь!$C$10</f>
-        <v>Жим в смите</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="str">
-        <f>грудь!$C$11</f>
-        <v>Жим гантелей</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="str">
-        <f>грудь!C25</f>
-        <v>жим гантелей 45 попеременно кажой рукой</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6" t="str">
-        <f>грудь!$C$12</f>
-        <v>Жим гантелей 45</v>
-      </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6" t="str">
-        <f>грудь!$C$13</f>
-        <v>жим гантелей узким хватом</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6" t="str">
-        <f>грудь!$C$14</f>
-        <v>Жим свенда</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6" t="str">
-        <f>грудь!$C$15</f>
-        <v>Жим штанги</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6" t="str">
-        <f>грудь!$C$16</f>
-        <v>Жим штанги 45</v>
-      </c>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6" t="str">
-        <f>грудь!$C$17</f>
-        <v>Развод гантелей круговой</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6" t="str">
-        <f>грудь!$C$18</f>
-        <v>развод гантелей стоя</v>
-      </c>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6" t="str">
-        <f>грудь!$C$19</f>
-        <v>Разод гантелей</v>
-      </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6" t="str">
-        <f>грудь!$C$20</f>
-        <v>Сведени в кроссовер сидя 45 руки горизонт</v>
-      </c>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6" t="str">
-        <f>грудь!$C$21</f>
-        <v>Сведения в кроссовер стоя</v>
-      </c>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6" t="str">
-        <f>грудь!$C$22</f>
-        <v>Сведения стоя  хамере</v>
-      </c>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6" t="str">
-        <f>грудь!$C$23</f>
-        <v>хамер</v>
-      </c>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6" t="str">
-        <f>грудь!$C$24</f>
-        <v>хамер сидя боком одной рукой</v>
-      </c>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6" t="str">
-        <f>грудь!$C$26</f>
-        <v>поднятие палки в кроссовере</v>
-      </c>
-      <c r="AY2" s="6"/>
+      <c r="B2" s="5" t="str">
+        <f>грудь!D2</f>
+        <v>Блочный за спину</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="str">
+        <f>грудь!$D$3</f>
+        <v>Блочный тяга к груди</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="str">
+        <f>грудь!$D$4</f>
+        <v>Тяга нижнего блока</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="str">
+        <f>грудь!$D$5</f>
+        <v>Тяга нижнего блока поочередно</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="str">
+        <f>грудь!$D$6</f>
+        <v>Тяга верхнего блока v- образно</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="str">
+        <f>грудь!$D$7</f>
+        <v>тяга цепей</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="str">
+        <f>грудь!$D$8</f>
+        <v>пулловер</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="str">
+        <f>грудь!$D$9</f>
+        <v>Тяга рукояди в кроссовере одной рукой сидя</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="str">
+        <f>грудь!$D$10</f>
+        <v>Тяга рукояди в кроссовере одной рукой стоя</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="str">
+        <f>грудь!$D$11</f>
+        <v>Шраги</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="e">
+        <f>грудь!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="str">
+        <f>грудь!$D$12</f>
+        <v>Подтягивания в гравитроне</v>
+      </c>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="str">
+        <f>грудь!$D$13</f>
+        <v>Pull Down</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="str">
+        <f>грудь!$D$14</f>
+        <v>Т - тяга с упором хват широкий</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="str">
+        <f>грудь!$D$15</f>
+        <v>Тяга гантелей в наклоне одной рукой</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="str">
+        <f>грудь!$D$16</f>
+        <v>Тяга штанги в наклоне</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="str">
+        <f>грудь!$D$17</f>
+        <v>Гребля одной рукой хват узкий</v>
+      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5" t="str">
+        <f>грудь!$D$18</f>
+        <v>Гребля 2 руками хват широкий</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5" t="str">
+        <f>грудь!$D$19</f>
+        <v>Гребля обратная хват  обратный, по середине, между ручками</v>
+      </c>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5" t="str">
+        <f>грудь!$D$20</f>
+        <v>Полустановая</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5" t="str">
+        <f>грудь!$D$21</f>
+        <v>гребляхват широкий 1ой рукой</v>
+      </c>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5" t="str">
+        <f>грудь!$D$22</f>
+        <v>Гребля двумя хват узкий</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5" t="str">
+        <f>грудь!$D$24</f>
+        <v>Гребля обратная хват узкий</v>
+      </c>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5" t="e">
+        <f>грудь!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5" t="e">
+        <f>грудь!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3" spans="1:51">
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -1960,7 +2233,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
@@ -2571,6 +2844,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AN2:AO2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="AX2:AY2"/>
@@ -2587,15 +2869,6 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AN2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2607,7 +2880,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2621,270 +2894,270 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="str">
-        <f>грудь!C15</f>
-        <v>Жим штанги</v>
+        <f>грудь!D15</f>
+        <v>Тяга гантелей в наклоне одной рукой</v>
       </c>
       <c r="B1" t="str">
-        <f>грудь!C19</f>
-        <v>Разод гантелей</v>
+        <f>грудь!D19</f>
+        <v>Гребля обратная хват  обратный, по середине, между ручками</v>
       </c>
       <c r="C1" t="str">
-        <f>грудь!C2</f>
-        <v>бабока в статике</v>
+        <f>грудь!D2</f>
+        <v>Блочный за спину</v>
       </c>
       <c r="D1" t="str">
-        <f>грудь!C8</f>
-        <v>Жим  смите 45</v>
+        <f>грудь!D8</f>
+        <v>пулловер</v>
       </c>
       <c r="E1" t="str">
-        <f>грудь!C23</f>
-        <v>хамер</v>
+        <f>грудь!D24</f>
+        <v>Гребля обратная хват узкий</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="str">
-        <f>грудь!C21</f>
-        <v>Сведения в кроссовер стоя</v>
+        <f>грудь!D21</f>
+        <v>гребляхват широкий 1ой рукой</v>
       </c>
       <c r="B2" t="str">
-        <f>грудь!C12</f>
-        <v>Жим гантелей 45</v>
+        <f>грудь!D12</f>
+        <v>Подтягивания в гравитроне</v>
       </c>
       <c r="C2" t="str">
-        <f>грудь!C3</f>
-        <v>Бабочка хат верх</v>
+        <f>грудь!D3</f>
+        <v>Блочный тяга к груди</v>
       </c>
       <c r="D2" t="str">
-        <f>грудь!C8</f>
-        <v>Жим  смите 45</v>
+        <f>грудь!D8</f>
+        <v>пулловер</v>
       </c>
       <c r="E2" t="str">
-        <f>грудь!C14</f>
-        <v>Жим свенда</v>
+        <f>грудь!D14</f>
+        <v>Т - тяга с упором хват широкий</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="str">
-        <f>грудь!C15</f>
-        <v>Жим штанги</v>
+        <f>грудь!D15</f>
+        <v>Тяга гантелей в наклоне одной рукой</v>
       </c>
       <c r="B3" t="str">
-        <f>грудь!C12</f>
-        <v>Жим гантелей 45</v>
+        <f>грудь!D12</f>
+        <v>Подтягивания в гравитроне</v>
       </c>
       <c r="C3" t="str">
-        <f>грудь!C22</f>
-        <v>Сведения стоя  хамере</v>
+        <f>грудь!D22</f>
+        <v>Гребля двумя хват узкий</v>
       </c>
       <c r="D3" t="str">
-        <f>грудь!C2</f>
-        <v>бабока в статике</v>
+        <f>грудь!D2</f>
+        <v>Блочный за спину</v>
       </c>
       <c r="E3" t="str">
-        <f>грудь!C6</f>
-        <v>Брусь с наклоном вперед</v>
+        <f>грудь!D6</f>
+        <v>Тяга верхнего блока v- образно</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="str">
-        <f>грудь!C2</f>
-        <v>бабока в статике</v>
+        <f>грудь!D2</f>
+        <v>Блочный за спину</v>
       </c>
       <c r="B4" t="str">
-        <f>грудь!C22</f>
-        <v>Сведения стоя  хамере</v>
+        <f>грудь!D22</f>
+        <v>Гребля двумя хват узкий</v>
       </c>
       <c r="C4" t="str">
-        <f>грудь!C12</f>
-        <v>Жим гантелей 45</v>
+        <f>грудь!D12</f>
+        <v>Подтягивания в гравитроне</v>
       </c>
       <c r="D4" t="str">
-        <f>грудь!C9</f>
-        <v>Жим в пул даун</v>
+        <f>грудь!D9</f>
+        <v>Тяга рукояди в кроссовере одной рукой сидя</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="str">
-        <f>грудь!C23</f>
-        <v>хамер</v>
+        <f>грудь!D24</f>
+        <v>Гребля обратная хват узкий</v>
       </c>
       <c r="D5" t="str">
-        <f>грудь!C3</f>
-        <v>Бабочка хат верх</v>
+        <f>грудь!D3</f>
+        <v>Блочный тяга к груди</v>
       </c>
       <c r="E5" t="str">
-        <f>грудь!C9</f>
-        <v>Жим в пул даун</v>
+        <f>грудь!D9</f>
+        <v>Тяга рукояди в кроссовере одной рукой сидя</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="str">
-        <f>грудь!C12</f>
-        <v>Жим гантелей 45</v>
+        <f>грудь!D12</f>
+        <v>Подтягивания в гравитроне</v>
       </c>
       <c r="B6" t="str">
-        <f>грудь!C23</f>
-        <v>хамер</v>
+        <f>грудь!D24</f>
+        <v>Гребля обратная хват узкий</v>
       </c>
       <c r="C6" t="str">
-        <f>грудь!C8</f>
-        <v>Жим  смите 45</v>
+        <f>грудь!D8</f>
+        <v>пулловер</v>
       </c>
       <c r="D6" t="str">
-        <f>грудь!C22</f>
-        <v>Сведения стоя  хамере</v>
+        <f>грудь!D22</f>
+        <v>Гребля двумя хват узкий</v>
       </c>
       <c r="E6" t="str">
-        <f>грудь!C9</f>
-        <v>Жим в пул даун</v>
+        <f>грудь!D9</f>
+        <v>Тяга рукояди в кроссовере одной рукой сидя</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="str">
-        <f>грудь!C23</f>
-        <v>хамер</v>
+        <f>грудь!D24</f>
+        <v>Гребля обратная хват узкий</v>
       </c>
       <c r="B7" t="str">
-        <f>грудь!C12</f>
-        <v>Жим гантелей 45</v>
+        <f>грудь!D12</f>
+        <v>Подтягивания в гравитроне</v>
       </c>
       <c r="C7" t="str">
-        <f>грудь!C2</f>
-        <v>бабока в статике</v>
+        <f>грудь!D2</f>
+        <v>Блочный за спину</v>
       </c>
       <c r="D7" t="str">
-        <f>грудь!C8</f>
-        <v>Жим  смите 45</v>
+        <f>грудь!D8</f>
+        <v>пулловер</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="str">
-        <f>грудь!C2</f>
-        <v>бабока в статике</v>
+        <f>грудь!D2</f>
+        <v>Блочный за спину</v>
       </c>
       <c r="B8" t="str">
-        <f>грудь!C15</f>
-        <v>Жим штанги</v>
+        <f>грудь!D15</f>
+        <v>Тяга гантелей в наклоне одной рукой</v>
       </c>
       <c r="C8" t="str">
-        <f>грудь!C16</f>
-        <v>Жим штанги 45</v>
+        <f>грудь!D16</f>
+        <v>Тяга штанги в наклоне</v>
       </c>
       <c r="D8" t="str">
-        <f>грудь!C19</f>
-        <v>Разод гантелей</v>
+        <f>грудь!D19</f>
+        <v>Гребля обратная хват  обратный, по середине, между ручками</v>
       </c>
       <c r="E8" t="str">
-        <f>грудь!C22</f>
-        <v>Сведения стоя  хамере</v>
+        <f>грудь!D22</f>
+        <v>Гребля двумя хват узкий</v>
       </c>
       <c r="F8" t="str">
-        <f>грудь!C9</f>
-        <v>Жим в пул даун</v>
+        <f>грудь!D9</f>
+        <v>Тяга рукояди в кроссовере одной рукой сидя</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="str">
-        <f>грудь!C15</f>
-        <v>Жим штанги</v>
+        <f>грудь!D15</f>
+        <v>Тяга гантелей в наклоне одной рукой</v>
       </c>
       <c r="B9" t="str">
-        <f>грудь!C22</f>
-        <v>Сведения стоя  хамере</v>
+        <f>грудь!D22</f>
+        <v>Гребля двумя хват узкий</v>
       </c>
       <c r="C9" t="str">
-        <f>грудь!C18</f>
-        <v>развод гантелей стоя</v>
+        <f>грудь!D18</f>
+        <v>Гребля 2 руками хват широкий</v>
       </c>
       <c r="D9" t="str">
-        <f>грудь!C17</f>
-        <v>Развод гантелей круговой</v>
+        <f>грудь!D17</f>
+        <v>Гребля одной рукой хват узкий</v>
       </c>
       <c r="E9" t="str">
-        <f>грудь!C20</f>
-        <v>Сведени в кроссовер сидя 45 руки горизонт</v>
+        <f>грудь!D20</f>
+        <v>Полустановая</v>
       </c>
       <c r="F9" t="str">
-        <f>грудь!C9</f>
-        <v>Жим в пул даун</v>
+        <f>грудь!D9</f>
+        <v>Тяга рукояди в кроссовере одной рукой сидя</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="str">
-        <f>грудь!C12</f>
-        <v>Жим гантелей 45</v>
-      </c>
-      <c r="B10" t="str">
-        <f>грудь!C24</f>
-        <v>хамер сидя боком одной рукой</v>
+        <f>грудь!D12</f>
+        <v>Подтягивания в гравитроне</v>
+      </c>
+      <c r="B10" t="e">
+        <f>грудь!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C10" t="str">
-        <f>грудь!C8</f>
-        <v>Жим  смите 45</v>
+        <f>грудь!D8</f>
+        <v>пулловер</v>
       </c>
       <c r="D10" t="str">
-        <f>грудь!C20</f>
-        <v>Сведени в кроссовер сидя 45 руки горизонт</v>
+        <f>грудь!D20</f>
+        <v>Полустановая</v>
       </c>
       <c r="E10" t="str">
-        <f>грудь!C14</f>
-        <v>Жим свенда</v>
+        <f>грудь!D14</f>
+        <v>Т - тяга с упором хват широкий</v>
       </c>
       <c r="F10" t="str">
-        <f>грудь!C9</f>
-        <v>Жим в пул даун</v>
+        <f>грудь!D9</f>
+        <v>Тяга рукояди в кроссовере одной рукой сидя</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="str">
-        <f>грудь!C5</f>
-        <v>Бабочка хват низ</v>
+        <f>грудь!D5</f>
+        <v>Тяга нижнего блока поочередно</v>
       </c>
       <c r="B11" t="str">
-        <f>грудь!C22</f>
-        <v>Сведения стоя  хамере</v>
+        <f>грудь!D22</f>
+        <v>Гребля двумя хват узкий</v>
       </c>
       <c r="C11" t="str">
-        <f>грудь!C13</f>
-        <v>жим гантелей узким хватом</v>
+        <f>грудь!D13</f>
+        <v>Pull Down</v>
       </c>
       <c r="D11" t="str">
-        <f>грудь!C18</f>
-        <v>развод гантелей стоя</v>
+        <f>грудь!D18</f>
+        <v>Гребля 2 руками хват широкий</v>
       </c>
       <c r="E11" t="str">
-        <f>грудь!C7</f>
-        <v>гравитрон жим грудью</v>
+        <f>грудь!D7</f>
+        <v>тяга цепей</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="str">
-        <f>грудь!C19</f>
-        <v>Разод гантелей</v>
+        <f>грудь!D19</f>
+        <v>Гребля обратная хват  обратный, по середине, между ручками</v>
       </c>
       <c r="B12" t="str">
-        <f>грудь!C23</f>
-        <v>хамер</v>
+        <f>грудь!D24</f>
+        <v>Гребля обратная хват узкий</v>
       </c>
       <c r="C12" t="str">
-        <f>грудь!C3</f>
-        <v>Бабочка хат верх</v>
-      </c>
-      <c r="D12" t="str">
-        <f>грудь!C25</f>
-        <v>жим гантелей 45 попеременно кажой рукой</v>
+        <f>грудь!D3</f>
+        <v>Блочный тяга к груди</v>
+      </c>
+      <c r="D12" t="e">
+        <f>грудь!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E12" t="str">
-        <f>грудь!C9</f>
-        <v>Жим в пул даун</v>
+        <f>грудь!D9</f>
+        <v>Тяга рукояди в кроссовере одной рукой сидя</v>
       </c>
       <c r="F12" t="str">
-        <f>грудь!C22</f>
-        <v>Сведения стоя  хамере</v>
-      </c>
-      <c r="G12" t="str">
-        <f>грудь!C26</f>
-        <v>поднятие палки в кроссовере</v>
+        <f>грудь!D22</f>
+        <v>Гребля двумя хват узкий</v>
+      </c>
+      <c r="G12" t="e">
+        <f>грудь!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -2909,24 +3182,24 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2943,13 +3216,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2967,13 +3240,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3000,21 +3273,21 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3069,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3081,10 +3354,10 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3130,11 +3403,11 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="7" t="s">
-        <v>59</v>
+      <c r="A3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>24</v>
@@ -3162,9 +3435,9 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -3192,9 +3465,9 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>24</v>
@@ -3222,9 +3495,9 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -3252,9 +3525,9 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>24</v>
@@ -3282,9 +3555,9 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>12</v>
@@ -3312,9 +3585,9 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>24</v>
@@ -3342,7 +3615,7 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="K10">
         <v>12</v>
       </c>
@@ -3369,90 +3642,90 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="7" t="s">
-        <v>58</v>
+      <c r="A15" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3463,4 +3736,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="str">
+        <f>грудь!D3</f>
+        <v>Блочный тяга к груди</v>
+      </c>
+      <c r="B1" t="str">
+        <f>грудь!D16</f>
+        <v>Тяга штанги в наклоне</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>